--- a/Data/setup.xlsx
+++ b/Data/setup.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/BCGreview/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C489601B-4466-4200-863E-841F57962993}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70D9DC27-F520-4249-ABBA-AA24AFA7D861}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
     <sheet name="Metrics" sheetId="2" r:id="rId2"/>
     <sheet name="Sites" sheetId="3" r:id="rId3"/>
+    <sheet name="Reviewers" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Samples!$A$1:$G$70</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="94">
   <si>
     <t>BCG Attribute</t>
   </si>
@@ -288,6 +289,54 @@
   <si>
     <t>Kick</t>
   </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Ben Jessup</t>
+  </si>
+  <si>
+    <t>Jen Stamp</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Facilitator</t>
+  </si>
+  <si>
+    <t>Balin</t>
+  </si>
+  <si>
+    <t>Dwalin</t>
+  </si>
+  <si>
+    <t>Fili</t>
+  </si>
+  <si>
+    <t>Kili</t>
+  </si>
+  <si>
+    <t>Nori</t>
+  </si>
+  <si>
+    <t>Gloin</t>
+  </si>
+  <si>
+    <t>Bifur</t>
+  </si>
+  <si>
+    <t>Bofur</t>
+  </si>
+  <si>
+    <t>Bombur</t>
+  </si>
+  <si>
+    <t>Thorin</t>
+  </si>
 </sst>
 </file>
 
@@ -334,120 +383,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -55578,16 +55514,16 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -55610,7 +55546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -55633,7 +55569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -55656,7 +55592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -55679,7 +55615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -55702,7 +55638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -55725,7 +55661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -55748,7 +55684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -55771,7 +55707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -55794,7 +55730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -55814,7 +55750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -55837,7 +55773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -55860,7 +55796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -55883,7 +55819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -55906,7 +55842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -55929,7 +55865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -55952,7 +55888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -55975,7 +55911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -55998,7 +55934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -56021,7 +55957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -56044,7 +55980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -56067,7 +56003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -56090,7 +56026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -56113,7 +56049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -56136,7 +56072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -56159,7 +56095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -56182,7 +56118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -56202,7 +56138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -56225,7 +56161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -56248,7 +56184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -56268,7 +56204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -56291,7 +56227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -56314,7 +56250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -56337,7 +56273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -56360,7 +56296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -56383,7 +56319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -56406,7 +56342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -56429,7 +56365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -56452,7 +56388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -56475,7 +56411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -56498,7 +56434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -56521,7 +56457,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -56544,7 +56480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -56567,7 +56503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -56590,7 +56526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -56613,7 +56549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -56633,7 +56569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -56656,7 +56592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -56679,7 +56615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -56702,7 +56638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -56725,7 +56661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -56748,7 +56684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -56771,7 +56707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -56794,7 +56730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -56817,7 +56753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -56840,7 +56776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -56863,7 +56799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -56886,7 +56822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -56909,7 +56845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -56932,7 +56868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -56955,7 +56891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -56978,7 +56914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -57001,7 +56937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -57024,7 +56960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -57047,7 +56983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -57070,7 +57006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -57093,7 +57029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>31</v>
       </c>
@@ -57116,7 +57052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -57139,7 +57075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -57162,7 +57098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -57201,17 +57137,17 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -57231,7 +57167,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -57251,7 +57187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -57271,7 +57207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -57300,16 +57236,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784EA419-4FED-4802-B525-8A4E51023574}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -57326,7 +57262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -57343,7 +57279,7 @@
         <v>-72.575331000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -57360,7 +57296,7 @@
         <v>-72.575331000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -57380,4 +57316,128 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4007FCBD-FD56-4476-9BB0-15C36DE5DD61}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>